--- a/要望書.xlsx
+++ b/要望書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\touho\OneDrive\デスクトップ\Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD3129-4EEC-453F-A36C-FD2914C8F3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112897B-3058-4E60-94B7-EFA9664DE685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6456" yWindow="876" windowWidth="16236" windowHeight="11208" xr2:uid="{EE80C447-0C49-448E-80B0-81C6BFCD24C7}"/>
+    <workbookView xWindow="5124" yWindow="480" windowWidth="16236" windowHeight="11208" xr2:uid="{EE80C447-0C49-448E-80B0-81C6BFCD24C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>エディター</t>
     <phoneticPr fontId="1"/>
@@ -308,25 +308,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正確な位置不明、イメージ図参照</t>
-  </si>
-  <si>
-    <t>正確な位置不明、イメージ図参照</t>
-    <rPh sb="0" eb="2">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンショウ</t>
-    </rPh>
+    <t>x = 734,y = 966(左上の座標)</t>
+    <rPh sb="16" eb="17">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x = 83,y = 980(左上の座標)</t>
+    <rPh sb="15" eb="16">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x = 1664,y = 985(左上の座標)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x = 25,y = 3(左上の座標)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x = 1400,y = 970(左上の座標)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x = 1600,y = 20(左上の座標)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,6 +755,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -742,36 +792,6 @@
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,22 +816,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457202</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2275115</xdr:colOff>
+      <xdr:colOff>2690581</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69FBAFC-7AD6-4140-93D2-D123A289B144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F13F5D-017B-4C77-86AA-94C4F43836FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,8 +853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6803573" y="4169230"/>
-          <a:ext cx="1817913" cy="1817913"/>
+          <a:off x="3690255" y="4397830"/>
+          <a:ext cx="2614383" cy="1426027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,23 +865,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2079171</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2637969</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B018A56A-33CF-4486-B61F-69472B023C3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959840A5-169E-40CB-ADC7-7512DCD370C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,8 +903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1774372" y="4212772"/>
-          <a:ext cx="1654628" cy="1654628"/>
+          <a:off x="6389915" y="4386945"/>
+          <a:ext cx="2594425" cy="1415141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1195,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9248E3F-355E-4722-8C26-E7C87C61767E}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1222,13 +1242,13 @@
       <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="5"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="19"/>
@@ -1236,14 +1256,14 @@
         <v>0</v>
       </c>
       <c r="D2" s="19"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -1260,7 +1280,7 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="24"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -1275,7 +1295,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="24"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1286,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
@@ -1294,7 +1314,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="24"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1305,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="5"/>
@@ -1313,7 +1333,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -1324,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
@@ -1332,7 +1352,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1351,7 +1371,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1368,20 +1388,20 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -1392,7 +1412,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5"/>
@@ -1400,7 +1420,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="12">
         <v>9</v>
       </c>
@@ -1411,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5"/>
@@ -1419,7 +1439,7 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -1436,18 +1456,18 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="24"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="22">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -1455,7 +1475,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="25"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="16">
         <v>12</v>
       </c>
@@ -1484,10 +1504,10 @@
     <row r="17" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1496,10 +1516,10 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="3"/>
@@ -1512,10 +1532,10 @@
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="3"/>
@@ -1526,8 +1546,8 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1536,8 +1556,8 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1546,8 +1566,8 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1556,8 +1576,8 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1566,8 +1586,8 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1576,8 +1596,8 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1586,8 +1606,8 @@
     <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
